--- a/fichas.xlsx
+++ b/fichas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZ Solutions\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZ Solutions\Desktop\CHATBOT\ChatBot-IA-Gemini-Meta\base-ts-meta-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841BB5EF-FA20-4AD5-955C-AF2009704B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE43F8E1-C11D-42B2-8846-8E2466AE06BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>$350.000</t>
-  </si>
-  <si>
-    <t>Local/Oficina</t>
   </si>
   <si>
     <t>Local en PB de edificio, 50 m2, luces instaladas, alarma, toilette.</t>
@@ -622,6 +619,9 @@
 Características Técnicas: Calefacción por caldera con radiadores, aberturas DVH , pisos de  parquet de ingeniería, carpintería de primera linea .-
 Edificio con Solarium y piscina .
 Opcional cochera: USD 20.000.-</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -714,11 +714,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -941,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0F71D3-DEE9-4879-A47C-13B585FC8301}">
   <dimension ref="A1:G386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,7 +1107,7 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E8" t="s">
@@ -1151,7 +1147,7 @@
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
@@ -1171,7 +1167,7 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E11" t="s">
@@ -1217,7 +1213,7 @@
       <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="2"/>
@@ -1232,7 +1228,7 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1253,7 +1249,7 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1269,17 +1265,17 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1294,13 +1290,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1313,14 +1309,14 @@
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>65</v>
+      <c r="D18" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
@@ -1333,14 +1329,14 @@
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>67</v>
+      <c r="D19" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -1353,14 +1349,14 @@
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>63</v>
+      <c r="D20" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -1373,14 +1369,14 @@
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>72</v>
+      <c r="D21" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -1393,14 +1389,14 @@
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="157.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1413,14 +1409,14 @@
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>80</v>
+      <c r="D23" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1433,14 +1429,14 @@
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>79</v>
+      <c r="D24" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -1454,14 +1450,14 @@
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -1475,14 +1471,14 @@
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1496,14 +1492,14 @@
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1517,14 +1513,14 @@
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1537,14 +1533,14 @@
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="313.5" x14ac:dyDescent="0.2">
@@ -1557,14 +1553,14 @@
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -1577,14 +1573,14 @@
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>100</v>
+      <c r="D31" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -1597,14 +1593,14 @@
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="171" x14ac:dyDescent="0.2">
@@ -1617,14 +1613,14 @@
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
         <v>105</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.25">
@@ -1637,14 +1633,14 @@
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.25">
@@ -1657,14 +1653,14 @@
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>113</v>
+      <c r="D35" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -1678,14 +1674,14 @@
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>103</v>
+      <c r="D36" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -1699,14 +1695,14 @@
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -1720,14 +1716,14 @@
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -1741,14 +1737,14 @@
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -1761,14 +1757,14 @@
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="228" x14ac:dyDescent="0.2">
@@ -1781,14 +1777,14 @@
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
@@ -1801,14 +1797,14 @@
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
         <v>131</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -1821,14 +1817,14 @@
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
         <v>134</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
@@ -1841,14 +1837,14 @@
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="E44" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1861,14 +1857,14 @@
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>138</v>
+      <c r="D45" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1881,14 +1877,14 @@
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>100</v>
+      <c r="D46" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G46" s="2"/>
     </row>
@@ -1902,14 +1898,14 @@
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -1923,14 +1919,14 @@
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="G48" s="2"/>
     </row>

--- a/fichas.xlsx
+++ b/fichas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZ Solutions\Desktop\CHATBOT\ChatBot-IA-Gemini-Meta\base-ts-meta-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE43F8E1-C11D-42B2-8846-8E2466AE06BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870EB945-0EB0-413A-91CA-8D616A67EFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0F71D3-DEE9-4879-A47C-13B585FC8301}">
   <dimension ref="A1:G386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
